--- a/medicine/Enfance/Animale/Animale.xlsx
+++ b/medicine/Enfance/Animale/Animale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Animale est une série de romans de fantasy historique français de Victor Dixen.
-Le premier tome, La Malédiction de Boucle d'or, a gagné le grand prix de l'Imaginaire 2014 dans la catégorie du meilleur roman pour la jeunesse[1]. Il se déroule dans les années 1830 après la chute du Premier Empire. Il s'agit d'une réécriture sombre et romantique du conte de Boucle d’or et les trois ours[2].
+Le premier tome, La Malédiction de Boucle d'or, a gagné le grand prix de l'Imaginaire 2014 dans la catégorie du meilleur roman pour la jeunesse. Il se déroule dans les années 1830 après la chute du Premier Empire. Il s'agit d'une réécriture sombre et romantique du conte de Boucle d’or et les trois ours.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série se déroule dans les années 1830[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série se déroule dans les années 1830.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Malédiction de Boucle d'or, Gallimard Jeunesse, 2013
 La Prophétie de la Reine des neiges, Gallimard Jeunesse, 2015</t>
